--- a/Excel Dataframes, EDA and Predictive Modelling/LaLiga_rank.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/LaLiga_rank.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,56 +538,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>5.56</v>
+        <v>3.322</v>
       </c>
       <c r="E2" t="n">
-        <v>2.721</v>
+        <v>2.79</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -599,56 +599,56 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.322</v>
+        <v>5.56</v>
       </c>
       <c r="E3" t="n">
-        <v>2.79</v>
+        <v>2.721</v>
       </c>
       <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L3" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
@@ -728,13 +728,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6.282</v>
+        <v>6.753</v>
       </c>
       <c r="E5" t="n">
-        <v>6.02</v>
+        <v>6.737</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
@@ -746,37 +746,37 @@
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L5" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M5" t="n">
         <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P5" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="R5" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="S5" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -789,55 +789,55 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.784</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.582000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>3.435</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.124000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>48</v>
+      </c>
+      <c r="L6" t="n">
+        <v>47</v>
+      </c>
+      <c r="M6" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>37</v>
-      </c>
-      <c r="L6" t="n">
-        <v>37</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="P6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -965,7 +965,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -975,16 +975,16 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>6.431</v>
+        <v>4.058</v>
       </c>
       <c r="E9" t="n">
-        <v>5.907999999999999</v>
+        <v>5.952999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -996,31 +996,31 @@
         <v>1.2</v>
       </c>
       <c r="K9" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="L9" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P9" t="n">
         <v>0.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1033,40 +1033,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.445</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.837</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="D10" t="n">
-        <v>7.165</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="K10" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L10" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -1078,35 +1078,35 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="S10" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>14.2</v>
+        <v>6.431</v>
       </c>
       <c r="E11" t="n">
-        <v>12.489</v>
+        <v>5.907999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1115,34 +1115,34 @@
         <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="L11" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="M11" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="P11" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
@@ -1270,68 +1270,68 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>3.114</v>
+        <v>4.638</v>
       </c>
       <c r="E14" t="n">
-        <v>4.867</v>
+        <v>8.202999999999999</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="K14" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="L14" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
@@ -1341,16 +1341,16 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3.147</v>
+        <v>2.309</v>
       </c>
       <c r="E15" t="n">
-        <v>6.912</v>
+        <v>5.46</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>-2</v>
@@ -1362,144 +1362,144 @@
         <v>0.67</v>
       </c>
       <c r="K15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>0.33</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>2.309</v>
+        <v>10.097</v>
       </c>
       <c r="E16" t="n">
-        <v>5.46</v>
+        <v>8.667999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>0.67</v>
       </c>
       <c r="K16" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="L16" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S16" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>4.638</v>
+        <v>3.147</v>
       </c>
       <c r="E17" t="n">
-        <v>8.202999999999999</v>
+        <v>6.912</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
         <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>0.67</v>
       </c>
       <c r="K17" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -1524,58 +1524,58 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6.234999999999999</v>
+        <v>11.386</v>
       </c>
       <c r="E18" t="n">
-        <v>8.184999999999999</v>
+        <v>11.577</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>80</v>
+      </c>
+      <c r="L18" t="n">
+        <v>82</v>
+      </c>
+      <c r="M18" t="n">
+        <v>17</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>0.4</v>
       </c>
-      <c r="K18" t="n">
-        <v>69</v>
-      </c>
-      <c r="L18" t="n">
-        <v>74</v>
-      </c>
-      <c r="M18" t="n">
-        <v>9</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="S18" t="n">
         <v>0.6</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
@@ -1585,19 +1585,19 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>3.593</v>
+        <v>6.234999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>8.576000000000001</v>
+        <v>8.184999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -1606,153 +1606,153 @@
         <v>0.4</v>
       </c>
       <c r="K19" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L19" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q19" t="n">
         <v>0.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>3.466</v>
+        <v>3.593</v>
       </c>
       <c r="E20" t="n">
-        <v>5.536</v>
+        <v>8.576000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="K20" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="L20" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="R20" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>7.693</v>
+        <v>3.466</v>
       </c>
       <c r="E21" t="n">
-        <v>7.396</v>
+        <v>5.536</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="K21" t="n">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="L21" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1819,29 +1819,29 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.508</v>
+        <v>3.521</v>
       </c>
       <c r="E23" t="n">
-        <v>1.618</v>
+        <v>4.281000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L23" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -1874,67 +1874,6 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Alaves</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.521</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.281000000000001</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>36</v>
-      </c>
-      <c r="L24" t="n">
-        <v>28</v>
-      </c>
-      <c r="M24" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2067,16 +2006,16 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>20.137</v>
+        <v>22.928</v>
       </c>
       <c r="E2" t="n">
-        <v>6.66</v>
+        <v>6.882</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
         <v>16</v>
@@ -2088,25 +2027,25 @@
         <v>2.78</v>
       </c>
       <c r="K2" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L2" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N2" t="n">
         <v>5</v>
       </c>
       <c r="O2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.44</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.5600000000000001</v>
       </c>
       <c r="R2" t="n">
         <v>0.89</v>
@@ -2362,306 +2301,306 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>5.538</v>
+        <v>10.503</v>
       </c>
       <c r="E7" t="n">
-        <v>3.219</v>
+        <v>8.030999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="L7" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>10.537</v>
+        <v>5.538</v>
       </c>
       <c r="E8" t="n">
-        <v>7.267</v>
+        <v>3.219</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>43</v>
+      </c>
+      <c r="L8" t="n">
+        <v>23</v>
+      </c>
+      <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>65</v>
-      </c>
-      <c r="M8" t="n">
-        <v>13</v>
-      </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="S8" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>15.623</v>
+        <v>12.498</v>
       </c>
       <c r="E9" t="n">
-        <v>9.092000000000001</v>
+        <v>10.571</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="L9" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.623</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.092000000000001</v>
+      </c>
+      <c r="F10" t="n">
         <v>12</v>
       </c>
-      <c r="D10" t="n">
-        <v>12.932</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.079</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14</v>
-      </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="K10" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L10" t="n">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="P10" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="S10" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>8.786999999999999</v>
+        <v>12.947</v>
       </c>
       <c r="E11" t="n">
-        <v>6.885999999999999</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="K11" t="n">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="L11" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>0.5</v>
       </c>
       <c r="P11" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="R11" t="n">
         <v>0.5</v>
       </c>
       <c r="S11" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12">
@@ -2796,13 +2735,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>15.042</v>
+        <v>14.277</v>
       </c>
       <c r="E14" t="n">
-        <v>7.269</v>
+        <v>6.532</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -2814,16 +2753,16 @@
         <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="K14" t="n">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="L14" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M14" t="n">
         <v>19</v>
@@ -2832,19 +2771,19 @@
         <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="P14" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="S14" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="15">
@@ -2857,238 +2796,238 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.089</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.178</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K15" t="n">
+        <v>82</v>
+      </c>
+      <c r="L15" t="n">
+        <v>49</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15</v>
+      </c>
+      <c r="N15" t="n">
         <v>8</v>
       </c>
-      <c r="D15" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.823</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>56</v>
-      </c>
-      <c r="M15" t="n">
-        <v>19</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9</v>
-      </c>
       <c r="O15" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="P15" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="R15" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>11.946</v>
+        <v>11.651</v>
       </c>
       <c r="E16" t="n">
-        <v>5.587</v>
+        <v>9.206</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
         <v>1.33</v>
       </c>
       <c r="K16" t="n">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="L16" t="n">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="M16" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P16" t="n">
         <v>0.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>16.744</v>
+        <v>11.946</v>
       </c>
       <c r="E17" t="n">
-        <v>17.25</v>
+        <v>5.587</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="K17" t="n">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="L17" t="n">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="M17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N17" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="P17" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="R17" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="S17" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>12.342</v>
+        <v>16.744</v>
       </c>
       <c r="E18" t="n">
-        <v>10.935</v>
+        <v>17.25</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
         <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="K18" t="n">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="L18" t="n">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="M18" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="19">
@@ -3583,55 +3522,55 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.478</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.482</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>11.928</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.428</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="S2" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -3705,55 +3644,55 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>17.425</v>
+        <v>12.493</v>
       </c>
       <c r="E4" t="n">
-        <v>4.719</v>
+        <v>3.999</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="L4" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N4" t="n">
         <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="S4" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -4315,55 +4254,55 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>19.677</v>
+        <v>22.761</v>
       </c>
       <c r="E14" t="n">
-        <v>11.313</v>
+        <v>11.59</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="K14" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="L14" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
         <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="P14" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15">
@@ -4613,68 +4552,68 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.154</v>
+      </c>
+      <c r="F19" t="n">
         <v>6</v>
       </c>
-      <c r="D19" t="n">
-        <v>10.812</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8.837</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K19" t="n">
+        <v>116</v>
+      </c>
+      <c r="L19" t="n">
+        <v>47</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12</v>
+      </c>
+      <c r="N19" t="n">
         <v>10</v>
       </c>
-      <c r="G19" t="n">
-        <v>7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>84</v>
-      </c>
-      <c r="L19" t="n">
-        <v>82</v>
-      </c>
-      <c r="M19" t="n">
-        <v>15</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8</v>
-      </c>
       <c r="O19" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="P19" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="S19" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
@@ -4684,52 +4623,52 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>10.197</v>
+        <v>10.812</v>
       </c>
       <c r="E20" t="n">
-        <v>5.824</v>
+        <v>8.837</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>84</v>
+      </c>
+      <c r="L20" t="n">
+        <v>82</v>
+      </c>
+      <c r="M20" t="n">
+        <v>15</v>
+      </c>
+      <c r="N20" t="n">
         <v>8</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K20" t="n">
-        <v>101</v>
-      </c>
-      <c r="L20" t="n">
-        <v>44</v>
-      </c>
-      <c r="M20" t="n">
-        <v>11</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
       <c r="O20" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P20" t="n">
         <v>0.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="R20" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="S20" t="n">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="21">
@@ -4742,55 +4681,55 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>6.528</v>
+        <v>7.216</v>
       </c>
       <c r="E21" t="n">
-        <v>3.38</v>
+        <v>4.596</v>
       </c>
       <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>77</v>
+      </c>
+      <c r="L21" t="n">
+        <v>45</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8</v>
+      </c>
+      <c r="N21" t="n">
         <v>5</v>
       </c>
-      <c r="G21" t="n">
-        <v>5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K21" t="n">
-        <v>68</v>
-      </c>
-      <c r="L21" t="n">
-        <v>30</v>
-      </c>
-      <c r="M21" t="n">
-        <v>7</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4</v>
-      </c>
       <c r="O21" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="P21" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S21" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
@@ -4987,7 +4926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5339,117 +5278,117 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>4.878</v>
+        <v>0.717</v>
       </c>
       <c r="E6" t="n">
-        <v>12.851</v>
+        <v>0.471</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4.375</v>
+        <v>5.1</v>
       </c>
       <c r="E7" t="n">
-        <v>4.813000000000001</v>
+        <v>15.642</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="L7" t="n">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="O7" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="P7" t="n">
         <v>0.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R7" t="n">
         <v>0.33</v>
@@ -5461,129 +5400,129 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>4.308</v>
+        <v>4.375</v>
       </c>
       <c r="E8" t="n">
-        <v>8.268000000000001</v>
+        <v>4.813000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="K8" t="n">
         <v>38</v>
       </c>
       <c r="L8" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M8" t="n">
         <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>10.642</v>
+        <v>4.308</v>
       </c>
       <c r="E9" t="n">
-        <v>12.013</v>
+        <v>8.268000000000001</v>
       </c>
       <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>38</v>
+      </c>
+      <c r="L9" t="n">
+        <v>64</v>
+      </c>
+      <c r="M9" t="n">
         <v>6</v>
       </c>
-      <c r="G9" t="n">
-        <v>11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K9" t="n">
-        <v>84</v>
-      </c>
-      <c r="L9" t="n">
-        <v>89</v>
-      </c>
-      <c r="M9" t="n">
-        <v>17</v>
-      </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>0.71</v>
+        <v>0.2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="R9" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="S9" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
@@ -5593,52 +5532,52 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>7.135</v>
+        <v>10.642</v>
       </c>
       <c r="E10" t="n">
-        <v>11.497</v>
+        <v>12.013</v>
       </c>
       <c r="F10" t="n">
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="K10" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L10" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O10" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="P10" t="n">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="Q10" t="n">
         <v>0.14</v>
       </c>
       <c r="R10" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="S10" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="11">
@@ -5705,129 +5644,129 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5.628</v>
+        <v>6.398</v>
       </c>
       <c r="E12" t="n">
-        <v>8.202</v>
+        <v>10.732</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="K12" t="n">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="L12" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P12" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="S12" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1.919</v>
+        <v>5.628</v>
       </c>
       <c r="E13" t="n">
-        <v>9.654999999999999</v>
+        <v>8.202</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
         <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K13" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L13" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
@@ -5837,19 +5776,19 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>6.107</v>
+        <v>1.919</v>
       </c>
       <c r="E14" t="n">
-        <v>12.775</v>
+        <v>9.654999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5858,16 +5797,16 @@
         <v>0.2</v>
       </c>
       <c r="K14" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L14" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>0.4</v>
@@ -5876,65 +5815,65 @@
         <v>0.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.72</v>
+        <v>6.107</v>
       </c>
       <c r="E15" t="n">
-        <v>4.932</v>
+        <v>12.775</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L15" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -5949,29 +5888,29 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>2.224</v>
+        <v>6.502</v>
       </c>
       <c r="E16" t="n">
-        <v>3.752</v>
+        <v>20.495</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -5980,37 +5919,37 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="L16" t="n">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O16" t="n">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="P16" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="S16" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
@@ -6020,10 +5959,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>2.675</v>
+        <v>2.731</v>
       </c>
       <c r="E17" t="n">
-        <v>11.428</v>
+        <v>10.476</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6041,16 +5980,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L17" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -6132,29 +6071,29 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6.502</v>
+        <v>2.675</v>
       </c>
       <c r="E19" t="n">
-        <v>20.495</v>
+        <v>11.428</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -6163,59 +6102,59 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L19" t="n">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.946</v>
+        <v>5.149</v>
       </c>
       <c r="E20" t="n">
-        <v>1.45</v>
+        <v>10.075</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -6224,59 +6163,59 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L20" t="n">
+        <v>75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6</v>
+      </c>
+      <c r="N20" t="n">
         <v>14</v>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>5.149</v>
+        <v>2.056</v>
       </c>
       <c r="E21" t="n">
-        <v>10.075</v>
+        <v>14.995</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -6285,59 +6224,59 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L21" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>2.056</v>
+        <v>2.224</v>
       </c>
       <c r="E22" t="n">
-        <v>14.995</v>
+        <v>3.752</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -6346,92 +6285,31 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L22" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="S22" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Las Palmas</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2.731</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10.476</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>9</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-9</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>42</v>
-      </c>
-      <c r="L23" t="n">
-        <v>64</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -6624,19 +6502,19 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>10.204</v>
+        <v>10.564</v>
       </c>
       <c r="E3" t="n">
-        <v>10.068</v>
+        <v>9.657999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
@@ -6645,22 +6523,22 @@
         <v>1.88</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L3" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
         <v>12</v>
       </c>
       <c r="O3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.38</v>
       </c>
       <c r="Q3" t="n">
         <v>0.62</v>
@@ -6675,312 +6553,312 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>9.488</v>
+        <v>13.783</v>
       </c>
       <c r="E4" t="n">
-        <v>7.608000000000001</v>
+        <v>17.442</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
         <v>1.67</v>
       </c>
       <c r="K4" t="n">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="L4" t="n">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O4" t="n">
-        <v>0.33</v>
+        <v>0.78</v>
       </c>
       <c r="P4" t="n">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>3.408</v>
+        <v>13.941</v>
       </c>
       <c r="E5" t="n">
-        <v>2.896</v>
+        <v>11.812</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="L5" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>7.061</v>
+        <v>3.408</v>
       </c>
       <c r="E6" t="n">
-        <v>8.901999999999999</v>
+        <v>2.896</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1.5</v>
       </c>
       <c r="K6" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="L6" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>10.307</v>
+        <v>9.682</v>
       </c>
       <c r="E7" t="n">
-        <v>12.208</v>
+        <v>11.044</v>
       </c>
       <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>11</v>
       </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="K7" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L7" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="R7" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="S7" t="n">
-        <v>0.67</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>3.455</v>
+        <v>14.742</v>
       </c>
       <c r="E8" t="n">
-        <v>8.541</v>
+        <v>14.747</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="K8" t="n">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="L8" t="n">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -6990,113 +6868,113 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>8.866</v>
+        <v>5.87</v>
       </c>
       <c r="E9" t="n">
-        <v>9.836</v>
+        <v>13.413</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="K9" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L9" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="P9" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="R9" t="n">
         <v>0.43</v>
       </c>
       <c r="S9" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.569</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I10" t="n">
         <v>10</v>
       </c>
-      <c r="D10" t="n">
-        <v>12.731</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14.199</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G10" t="n">
-        <v>17</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L10" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -7112,16 +6990,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>9.452999999999999</v>
+        <v>10.167</v>
       </c>
       <c r="E11" t="n">
-        <v>17.094</v>
+        <v>18.084</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
         <v>-2</v>
@@ -7139,92 +7017,92 @@
         <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R11" t="n">
         <v>0.6</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>4.837</v>
+        <v>7.697</v>
       </c>
       <c r="E12" t="n">
-        <v>6.527</v>
+        <v>11.682</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" t="n">
         <v>7</v>
       </c>
-      <c r="H12" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="L12" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
@@ -7234,235 +7112,235 @@
         <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>12.362</v>
+        <v>10.585</v>
       </c>
       <c r="E13" t="n">
-        <v>14.139</v>
+        <v>15.726</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H13" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K13" t="n">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="L13" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Q13" t="n">
         <v>0.3</v>
       </c>
       <c r="R13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S13" t="n">
         <v>0.4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.512</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="F14" t="n">
         <v>5</v>
       </c>
-      <c r="D14" t="n">
-        <v>4.411</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.468999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="K14" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L14" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>4.56</v>
+        <v>12.716</v>
       </c>
       <c r="E15" t="n">
-        <v>9.397</v>
+        <v>12.235</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="K15" t="n">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="L15" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O15" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="P15" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="R15" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="S15" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.397</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
         <v>9</v>
       </c>
-      <c r="D16" t="n">
-        <v>7.748</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14.914</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>16</v>
-      </c>
       <c r="H16" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="K16" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L16" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="M16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="P16" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="R16" t="n">
-        <v>0.44</v>
+        <v>0.14</v>
       </c>
       <c r="S16" t="n">
-        <v>0.44</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="17">
@@ -7475,55 +7353,55 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>10.314</v>
+        <v>10.925</v>
       </c>
       <c r="E17" t="n">
-        <v>16.543</v>
+        <v>17.018</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
         <v>-3</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="K17" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L17" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O17" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="P17" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="R17" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
@@ -7590,236 +7468,236 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.157</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-7</v>
+      </c>
+      <c r="I19" t="n">
         <v>5</v>
       </c>
-      <c r="D19" t="n">
-        <v>6.867</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.991000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="K19" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="L19" t="n">
         <v>68</v>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>2.072</v>
+        <v>6.867</v>
       </c>
       <c r="E20" t="n">
-        <v>3.278</v>
+        <v>7.991000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="L20" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>8.928000000000001</v>
+        <v>2.072</v>
       </c>
       <c r="E21" t="n">
-        <v>14.306</v>
+        <v>3.278</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L21" t="n">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="M21" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="S21" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>3.548</v>
+        <v>10.299</v>
       </c>
       <c r="E22" t="n">
-        <v>10.012</v>
+        <v>17.223</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H22" t="n">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
         <v>0.33</v>
       </c>
       <c r="K22" t="n">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="L22" t="n">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -7834,62 +7712,62 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.165999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12.914</v>
+      </c>
+      <c r="F23" t="n">
         <v>7</v>
       </c>
-      <c r="D23" t="n">
-        <v>5.089</v>
-      </c>
-      <c r="E23" t="n">
-        <v>8.896000000000001</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="K23" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="L23" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O23" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
@@ -7902,22 +7780,22 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>5.028</v>
+        <v>5.305000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>9.818999999999999</v>
+        <v>12.903</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -7926,22 +7804,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L24" t="n">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O24" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="P24" t="n">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -8072,251 +7950,251 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>14.925</v>
+        <v>1.346</v>
       </c>
       <c r="E2" t="n">
-        <v>8.739000000000001</v>
+        <v>1.831</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>10.543</v>
+        <v>11.93</v>
       </c>
       <c r="E3" t="n">
-        <v>11.977</v>
+        <v>5.884</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L3" t="n">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="M3" t="n">
         <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="R3" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="S3" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>16.481</v>
+        <v>3.126</v>
       </c>
       <c r="E4" t="n">
-        <v>15.693</v>
+        <v>2.602</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
-        <v>21</v>
-      </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="K4" t="n">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="L4" t="n">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>5.807</v>
+        <v>18.488</v>
       </c>
       <c r="E5" t="n">
-        <v>2.627</v>
+        <v>10.27</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>109</v>
+      </c>
+      <c r="L5" t="n">
+        <v>130</v>
+      </c>
+      <c r="M5" t="n">
+        <v>32</v>
+      </c>
+      <c r="N5" t="n">
         <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47</v>
-      </c>
-      <c r="L5" t="n">
-        <v>39</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0.5</v>
       </c>
       <c r="P5" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="S5" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
@@ -8326,19 +8204,19 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>9.151</v>
+        <v>8.814</v>
       </c>
       <c r="E6" t="n">
-        <v>4.148</v>
+        <v>11.286</v>
       </c>
       <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>12</v>
@@ -8350,86 +8228,86 @@
         <v>81</v>
       </c>
       <c r="L6" t="n">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
       </c>
       <c r="R6" t="n">
         <v>0.67</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.807</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.627</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
-        <v>9.246</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.133</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16</v>
-      </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="L7" t="n">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S7" t="n">
         <v>0.25</v>
@@ -8438,129 +8316,129 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.308</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.683</v>
+      </c>
+      <c r="F8" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
-        <v>20.163</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12.423</v>
-      </c>
-      <c r="F8" t="n">
-        <v>23</v>
-      </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
         <v>17</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K8" t="n">
-        <v>125</v>
-      </c>
-      <c r="L8" t="n">
-        <v>140</v>
-      </c>
-      <c r="M8" t="n">
-        <v>34</v>
-      </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="P8" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="R8" t="n">
-        <v>0.78</v>
+        <v>0.43</v>
       </c>
       <c r="S8" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>4.169</v>
+        <v>8.178000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>5.064</v>
+        <v>10.419</v>
       </c>
       <c r="F9" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="K9" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="L9" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="P9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
@@ -8570,52 +8448,52 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>6.724</v>
+        <v>7.14</v>
       </c>
       <c r="E10" t="n">
-        <v>6.509</v>
+        <v>3.6</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L10" t="n">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="P10" t="n">
         <v>0.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="R10" t="n">
         <v>0.6</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -8628,74 +8506,74 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.425000000000001</v>
+      </c>
+      <c r="F11" t="n">
         <v>5</v>
       </c>
-      <c r="D11" t="n">
-        <v>5.307</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.849</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="K11" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1.964</v>
+        <v>5.725</v>
       </c>
       <c r="E12" t="n">
-        <v>4.733000000000001</v>
+        <v>5.702</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
@@ -8707,470 +8585,470 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="L12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R12" t="n">
         <v>0.5</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>7.384</v>
+        <v>9.786999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>8.289</v>
+        <v>9.106999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="K13" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L13" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.818000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.571</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>46</v>
+      </c>
+      <c r="L14" t="n">
+        <v>72</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
         <v>8</v>
       </c>
-      <c r="D14" t="n">
-        <v>15.325</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.067</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="K14" t="n">
-        <v>114</v>
-      </c>
-      <c r="L14" t="n">
-        <v>90</v>
-      </c>
-      <c r="M14" t="n">
-        <v>19</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11</v>
-      </c>
       <c r="O14" t="n">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="R14" t="n">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="S14" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>9.786999999999999</v>
+        <v>3.391</v>
       </c>
       <c r="E15" t="n">
-        <v>9.106999999999999</v>
+        <v>8.026</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>34</v>
+      </c>
+      <c r="L15" t="n">
+        <v>66</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
         <v>11</v>
       </c>
-      <c r="H15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="K15" t="n">
-        <v>75</v>
-      </c>
-      <c r="L15" t="n">
-        <v>86</v>
-      </c>
-      <c r="M15" t="n">
-        <v>13</v>
-      </c>
-      <c r="N15" t="n">
-        <v>12</v>
-      </c>
       <c r="O15" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="P15" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="R15" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="S15" t="n">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>6.874000000000001</v>
+        <v>13.707</v>
       </c>
       <c r="E16" t="n">
-        <v>8.679</v>
+        <v>8.558999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="K16" t="n">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="L16" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N16" t="n">
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>4.002</v>
+        <v>5.243</v>
       </c>
       <c r="E17" t="n">
-        <v>8.500999999999999</v>
+        <v>5.792</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>52</v>
+      </c>
+      <c r="L17" t="n">
+        <v>59</v>
+      </c>
+      <c r="M17" t="n">
         <v>6</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>43</v>
-      </c>
-      <c r="L17" t="n">
-        <v>73</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.058</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.001</v>
+      </c>
+      <c r="F18" t="n">
         <v>6</v>
       </c>
-      <c r="D18" t="n">
-        <v>7.439</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.712999999999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
       <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="L18" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="M18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
         <v>10</v>
       </c>
-      <c r="N18" t="n">
-        <v>12</v>
-      </c>
       <c r="O18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.578</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.829</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>40</v>
+      </c>
+      <c r="L19" t="n">
+        <v>78</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="n">
         <v>6</v>
       </c>
-      <c r="D19" t="n">
-        <v>7.702</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.734</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K19" t="n">
-        <v>55</v>
-      </c>
-      <c r="L19" t="n">
-        <v>96</v>
-      </c>
-      <c r="M19" t="n">
-        <v>13</v>
-      </c>
-      <c r="N19" t="n">
-        <v>14</v>
-      </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
@@ -9180,19 +9058,19 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5.619</v>
+        <v>5.667</v>
       </c>
       <c r="E20" t="n">
-        <v>8.923</v>
+        <v>10.372</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -9201,28 +9079,28 @@
         <v>0.8</v>
       </c>
       <c r="K20" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="L20" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M20" t="n">
         <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="S20" t="n">
         <v>0.4</v>
@@ -9231,7 +9109,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
@@ -9241,19 +9119,19 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4.451</v>
+        <v>4.037</v>
       </c>
       <c r="E21" t="n">
-        <v>9.683999999999999</v>
+        <v>7.867</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -9262,16 +9140,16 @@
         <v>0.75</v>
       </c>
       <c r="K21" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="L21" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>0.5</v>
